--- a/src/divulgacao_brasil_ideb_2023-1.xlsx
+++ b/src/divulgacao_brasil_ideb_2023-1.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Brasil (Ensino Fundamental Regu" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Brasil (Ensino Médio Regular)" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Rede</t>
   </si>
@@ -28,61 +28,31 @@
     <t xml:space="preserve">Taxa de Aprovação 2005</t>
   </si>
   <si>
-    <t xml:space="preserve">Indicador de Rendimento 2005</t>
-  </si>
-  <si>
     <t xml:space="preserve">Taxa de Aprovação 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">Indicador de Rendimento 2007</t>
-  </si>
-  <si>
     <t xml:space="preserve">Taxa de Aprovação 2009</t>
   </si>
   <si>
-    <t xml:space="preserve">Indicador de Rendimento 2009</t>
-  </si>
-  <si>
     <t xml:space="preserve">Taxa de Aprovação 2011</t>
   </si>
   <si>
-    <t xml:space="preserve">Indicador de Rendimento 2011</t>
-  </si>
-  <si>
     <t xml:space="preserve">Taxa de Aprovação 2013</t>
   </si>
   <si>
-    <t xml:space="preserve">Indicador de Rendimento 2013</t>
-  </si>
-  <si>
     <t xml:space="preserve">Taxa de Aprovação 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">Indicador de Rendimento 2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">Taxa de Aprovação 2017</t>
   </si>
   <si>
-    <t xml:space="preserve">Indicador de Rendimento 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve">Taxa de Aprovação 2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Indicador de Rendimento 2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">Taxa de Aprovação 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Indicador de Rendimento 2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">Taxa de Aprovação 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicador de Rendimento 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Pública</t>
@@ -92,10 +62,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,21 +89,48 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color theme="0" tint="-0.25"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.25"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.25"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.25"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -161,7 +159,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -182,6 +180,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,6 +193,84 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -374,20 +454,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD1048576"/>
+  <dimension ref="A1:XFD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16285" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16275" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -421,36 +501,16 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="XAY1" s="1"/>
+      <c r="XAZ1" s="1"/>
+      <c r="XBA1" s="1"/>
+      <c r="XBB1" s="1"/>
+      <c r="XBC1" s="1"/>
+      <c r="XBD1" s="1"/>
+      <c r="XBE1" s="1"/>
+      <c r="XBF1" s="1"/>
+      <c r="XBG1" s="1"/>
+      <c r="XBH1" s="1"/>
       <c r="XBI1" s="1"/>
       <c r="XBJ1" s="1"/>
       <c r="XBK1" s="1"/>
@@ -554,76 +614,45 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>0.812695517</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>84.6</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0.852938777</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.876210793</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.902861432</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.918415612</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.922822191</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>93</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.93110183</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.9435984004</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.9736988558</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.9677668415</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>70.6</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>78.1</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>81.4</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>90.5</v>
       </c>
     </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <conditionalFormatting sqref="B2:K2">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>+$B2="Total"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/divulgacao_brasil_ideb_2023-1.xlsx
+++ b/src/divulgacao_brasil_ideb_2023-1.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Brasil (Ensino Médio Regular)" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Piauí( Ensino Fundamental Regul" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -106,7 +106,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -193,7 +193,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.05"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -207,6 +223,22 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.05"/>
         </patternFill>
       </fill>
     </dxf>
@@ -231,7 +263,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFF2F2F2"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -457,7 +489,7 @@
   <dimension ref="A1:XFD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -617,40 +649,46 @@
         <v>11</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>70.6</v>
+        <v>69.9</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>71.8</v>
+        <v>75.9</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>73.7</v>
+        <v>80.2</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>75.2</v>
+        <v>84.7</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>78.1</v>
+        <v>87.1</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>79.8</v>
+        <v>87.2</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>81.4</v>
+        <v>89.3</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>84.7</v>
+        <v>92.5</v>
       </c>
       <c r="J2" s="5" t="n">
-        <v>89.8</v>
+        <v>97.7</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>90.5</v>
+        <v>97.7</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:K2">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>+$B2="Total (4)"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>+$B2="Total"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>+$B2="Total (3)(4)"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
